--- a/API/nalog.xlsx
+++ b/API/nalog.xlsx
@@ -11,9 +11,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Predmet: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+  <si>
+    <r>
+      <t xml:space="preserve">Predmet: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>Puni naziv predmeta PRE101</t>
+    </r>
   </si>
   <si>
     <r>
@@ -50,6 +58,59 @@
     <t>br sati predviđen programom</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>KAT - 01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>Studiji naziv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>2022./23.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P:</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> S:</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> V:</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
     <t>Redni broj</t>
   </si>
   <si>
@@ -87,6 +148,94 @@
   </si>
   <si>
     <t>vjež</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>Ime Prezime1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>redoviti profesor u trajnom zvanju</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>PUNI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>Ime Prezime2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>KUMUL. 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>Ime Prezime3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>redoviti profesor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>Ime Prezime4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>izvanredni profesor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t>Ime Prezime5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
   <si>
     <t>UKUPNO</t>
@@ -108,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -118,6 +267,13 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -158,16 +314,7 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color rgb="00000000"/>
       </right>
       <top/>
@@ -187,18 +334,53 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
         <color rgb="00000000"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -209,22 +391,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -616,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:N35"/>
+  <dimension ref="A5:N32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="6.67" customWidth="1"/>
@@ -731,50 +931,58 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="90" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -783,25 +991,25 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -809,99 +1017,207 @@
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>4</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>5</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17">
+        <v>5</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3</v>
+      </c>
+      <c r="G22" s="17">
         <v>6</v>
       </c>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>7</v>
-      </c>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>8</v>
-      </c>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="J34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="J31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -921,10 +1237,10 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A28:C29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="J34:L35"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="J31:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/API/nalog.xlsx
+++ b/API/nalog.xlsx
@@ -13,15 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
-    <r>
-      <t xml:space="preserve">Predmet: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>Puni naziv predmeta PRE101</t>
-    </r>
+    <t>Predmet: Puni naziv predmeta PRE101</t>
   </si>
   <si>
     <r>
@@ -58,57 +50,16 @@
     <t>br sati predviđen programom</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>KAT - 01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>Studiji naziv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>2022./23.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P:</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> S:</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> V:</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>6</t>
-    </r>
+    <t>KAT - 01</t>
+  </si>
+  <si>
+    <t>Studiji naziv</t>
+  </si>
+  <si>
+    <t>2022./23.</t>
+  </si>
+  <si>
+    <t>P: 5 S: 3 V: 6</t>
   </si>
   <si>
     <t>Redni broj</t>
@@ -150,92 +101,37 @@
     <t>vjež</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>Ime Prezime1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>redoviti profesor u trajnom zvanju</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>PUNI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>Ime Prezime2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>KUMUL. 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>Ime Prezime3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>redoviti profesor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>Ime Prezime4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>izvanredni profesor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t>Ime Prezime5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF0000"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>Ime Prezime1</t>
+  </si>
+  <si>
+    <t>redoviti profesor u trajnom zvanju</t>
+  </si>
+  <si>
+    <t>PUNI</t>
+  </si>
+  <si>
+    <t>Ime Prezime2</t>
+  </si>
+  <si>
+    <t>KUMUL. 50%</t>
+  </si>
+  <si>
+    <t>Ime Prezime3</t>
+  </si>
+  <si>
+    <t>redoviti profesor</t>
+  </si>
+  <si>
+    <t>Ime Prezime4</t>
+  </si>
+  <si>
+    <t>izvanredni profesor</t>
+  </si>
+  <si>
+    <t>Ime Prezime5</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>UKUPNO</t>
@@ -257,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -267,13 +163,6 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF0000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,6 +214,17 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color rgb="00000000"/>
@@ -380,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -395,35 +295,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -938,18 +850,18 @@
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -962,11 +874,11 @@
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
@@ -976,11 +888,11 @@
       <c r="J15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1014,210 +926,258 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="14">
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="14">
         <v>0</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16">
+        <f>E17*H17</f>
+      </c>
+      <c r="L17" s="16">
+        <f>F17*I17</f>
+      </c>
+      <c r="M17" s="16">
+        <f>G17*J17</f>
+      </c>
+      <c r="N17" s="17">
+        <f>K17*M17</f>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="14">
         <v>1</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16">
+        <f>E18*H18</f>
+      </c>
+      <c r="L18" s="16">
+        <f>F18*I18</f>
+      </c>
+      <c r="M18" s="16">
+        <f>G18*J18</f>
+      </c>
+      <c r="N18" s="17">
+        <f>K18*M18</f>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="14">
         <v>1</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="14">
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="14">
         <v>0</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16">
+        <f>E19*H19</f>
+      </c>
+      <c r="L19" s="16">
+        <f>F19*I19</f>
+      </c>
+      <c r="M19" s="16">
+        <f>G19*J19</f>
+      </c>
+      <c r="N19" s="17">
+        <f>K19*M19</f>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="14">
         <v>1</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="14">
         <v>0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="14">
         <v>4</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16">
+        <f>E20*H20</f>
+      </c>
+      <c r="L20" s="16">
+        <f>F20*I20</f>
+      </c>
+      <c r="M20" s="16">
+        <f>G20*J20</f>
+      </c>
+      <c r="N20" s="17">
+        <f>K20*M20</f>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="14">
         <v>2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="14">
         <v>0</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16">
+        <f>E21*H21</f>
+      </c>
+      <c r="L21" s="16">
+        <f>F21*I21</f>
+      </c>
+      <c r="M21" s="16">
+        <f>G21*J21</f>
+      </c>
+      <c r="N21" s="17">
+        <f>K21*M21</f>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17">
-        <v>5</v>
-      </c>
-      <c r="F22" s="17">
-        <v>3</v>
-      </c>
-      <c r="G22" s="17">
-        <v>6</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20">
+        <f>SUM(E17:E21)</f>
+      </c>
+      <c r="F22" s="20">
+        <f>SUM(F17:F21)</f>
+      </c>
+      <c r="G22" s="20">
+        <f>SUM(G17:G21)</f>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="21">
+        <f>SUM(K17:K21)</f>
+      </c>
+      <c r="L22" s="21">
+        <f>SUM(L17:L21)</f>
+      </c>
+      <c r="M22" s="21">
+        <f>SUM(M17:M21)</f>
+      </c>
+      <c r="N22" s="21">
+        <f>SUM(N17:N21)</f>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="J31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="20">
